--- a/src/main/resources/templates/test.xlsx
+++ b/src/main/resources/templates/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CC903C-33F0-4C1F-A2AC-6DBC159A1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE32497-D0D8-415C-B4DF-ED7A8299E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>张三链子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师性别:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,15 +166,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -443,20 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -464,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -472,141 +489,168 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>34365</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="1">
         <v>34365</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>34365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
-        <v>34355</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="1">
         <v>34355</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E6" s="1">
+        <v>34355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>34730</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="1">
         <v>34730</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1">
+        <v>34365</v>
+      </c>
+      <c r="E10" s="1">
+        <v>34365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="1">
         <v>35085</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
         <v>35085</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>123</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>456</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="9">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -618,11 +662,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BCF831-6AD2-4210-ACA5-6BE0EE01F0F8}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -634,19 +681,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -669,7 +716,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>34365</v>
       </c>
       <c r="D5" s="1">
@@ -691,12 +738,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -741,10 +788,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -778,5 +825,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>